--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luz21\Documents\GitHub\Dise-os.Exp-Teoria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlumnoNSR\Documents\GitHub\Dise-os.Exp-Teoria\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,6 +21,26 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>densidad</t>
+  </si>
+  <si>
+    <t>humedad</t>
+  </si>
+  <si>
+    <t>unidad</t>
+  </si>
+  <si>
+    <t>dia</t>
+  </si>
+  <si>
+    <t>evoluación</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,12 +356,950 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B4">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B5">
+        <v>0.2</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B6">
+        <v>0.24</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B7">
+        <v>0.24</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B8">
+        <v>0.1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B10">
+        <v>0.2</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B11">
+        <v>0.2</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B12">
+        <v>0.24</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B13">
+        <v>0.24</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B14">
+        <v>0.1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B15">
+        <v>0.1</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B16">
+        <v>0.2</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B17">
+        <v>0.2</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B18">
+        <v>0.24</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B19">
+        <v>0.24</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1.4</v>
+      </c>
+      <c r="B20">
+        <v>0.1</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1.4</v>
+      </c>
+      <c r="B21">
+        <v>0.1</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1.4</v>
+      </c>
+      <c r="B22">
+        <v>0.2</v>
+      </c>
+      <c r="C22">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1.4</v>
+      </c>
+      <c r="B23">
+        <v>0.2</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1.4</v>
+      </c>
+      <c r="B24">
+        <v>0.24</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1.4</v>
+      </c>
+      <c r="B25">
+        <v>0.24</v>
+      </c>
+      <c r="C25">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1.4</v>
+      </c>
+      <c r="B26">
+        <v>0.1</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1.4</v>
+      </c>
+      <c r="B27">
+        <v>0.1</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1.4</v>
+      </c>
+      <c r="B28">
+        <v>0.2</v>
+      </c>
+      <c r="C28">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1.4</v>
+      </c>
+      <c r="B29">
+        <v>0.2</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1.4</v>
+      </c>
+      <c r="B30">
+        <v>0.24</v>
+      </c>
+      <c r="C30">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1.4</v>
+      </c>
+      <c r="B31">
+        <v>0.24</v>
+      </c>
+      <c r="C31">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1.4</v>
+      </c>
+      <c r="B32">
+        <v>0.1</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1.4</v>
+      </c>
+      <c r="B33">
+        <v>0.1</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1.4</v>
+      </c>
+      <c r="B34">
+        <v>0.2</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1.4</v>
+      </c>
+      <c r="B35">
+        <v>0.2</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1.4</v>
+      </c>
+      <c r="B36">
+        <v>0.24</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1.4</v>
+      </c>
+      <c r="B37">
+        <v>0.24</v>
+      </c>
+      <c r="C37">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1.6</v>
+      </c>
+      <c r="B38">
+        <v>0.1</v>
+      </c>
+      <c r="C38">
+        <v>13</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1.6</v>
+      </c>
+      <c r="B39">
+        <v>0.1</v>
+      </c>
+      <c r="C39">
+        <v>14</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1.6</v>
+      </c>
+      <c r="B40">
+        <v>0.2</v>
+      </c>
+      <c r="C40">
+        <v>15</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1.6</v>
+      </c>
+      <c r="B41">
+        <v>0.2</v>
+      </c>
+      <c r="C41">
+        <v>16</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1.6</v>
+      </c>
+      <c r="B42">
+        <v>0.24</v>
+      </c>
+      <c r="C42">
+        <v>17</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1.6</v>
+      </c>
+      <c r="B43">
+        <v>0.24</v>
+      </c>
+      <c r="C43">
+        <v>18</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1.6</v>
+      </c>
+      <c r="B44">
+        <v>0.1</v>
+      </c>
+      <c r="C44">
+        <v>13</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1.6</v>
+      </c>
+      <c r="B45">
+        <v>0.1</v>
+      </c>
+      <c r="C45">
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1.6</v>
+      </c>
+      <c r="B46">
+        <v>0.2</v>
+      </c>
+      <c r="C46">
+        <v>15</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1.6</v>
+      </c>
+      <c r="B47">
+        <v>0.2</v>
+      </c>
+      <c r="C47">
+        <v>16</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1.6</v>
+      </c>
+      <c r="B48">
+        <v>0.24</v>
+      </c>
+      <c r="C48">
+        <v>17</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1.6</v>
+      </c>
+      <c r="B49">
+        <v>0.24</v>
+      </c>
+      <c r="C49">
+        <v>18</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1.6</v>
+      </c>
+      <c r="B50">
+        <v>0.1</v>
+      </c>
+      <c r="C50">
+        <v>13</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1.6</v>
+      </c>
+      <c r="B51">
+        <v>0.1</v>
+      </c>
+      <c r="C51">
+        <v>14</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1.6</v>
+      </c>
+      <c r="B52">
+        <v>0.2</v>
+      </c>
+      <c r="C52">
+        <v>15</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1.6</v>
+      </c>
+      <c r="B53">
+        <v>0.2</v>
+      </c>
+      <c r="C53">
+        <v>16</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1.6</v>
+      </c>
+      <c r="B54">
+        <v>0.24</v>
+      </c>
+      <c r="C54">
+        <v>17</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1.6</v>
+      </c>
+      <c r="B55">
+        <v>0.24</v>
+      </c>
+      <c r="C55">
+        <v>18</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>